--- a/scma/skosplay-scma-001.xlsx
+++ b/scma/skosplay-scma-001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cox075\dev\ENV\anzsoil\aus-vocab\scma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E48B599-3D16-4A95-9E29-5510557B64FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682CA642-4C7C-4A5D-B3A4-AAB20E6AA60B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39705" yWindow="975" windowWidth="36060" windowHeight="15825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40050" yWindow="1320" windowWidth="36060" windowHeight="15825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="soil-profile" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="1070">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -3275,12 +3275,42 @@
   <si>
     <t>dcterms:accrualPeriodicity</t>
   </si>
+  <si>
+    <t>dcterms:isReplacedBy</t>
+  </si>
+  <si>
+    <t>owl:Nothing</t>
+  </si>
+  <si>
+    <t>s:14E2a , s:14E2b</t>
+  </si>
+  <si>
+    <t>s:14F5a , s:14F5b</t>
+  </si>
+  <si>
+    <t>s:14G2a , s:14G2b</t>
+  </si>
+  <si>
+    <t>s:5A2a , s:5A2b</t>
+  </si>
+  <si>
+    <t>s:7A2a , s:7A2b</t>
+  </si>
+  <si>
+    <t>s:7B1a , s:7B1b</t>
+  </si>
+  <si>
+    <t>s:7C2a , s:7C2b</t>
+  </si>
+  <si>
+    <t>s:9C2a , s:9C2b</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3345,12 +3375,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3500,15 +3524,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3863,11 +3887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M477"/>
+  <dimension ref="A1:N477"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="21" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="21" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L249" sqref="L249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3882,12 +3906,12 @@
     <col min="8" max="8" width="20.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="29.5703125" style="3" customWidth="1"/>
     <col min="10" max="10" width="45.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="40.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="39.28515625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="3"/>
+    <col min="11" max="12" width="40.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="39.28515625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3895,8 +3919,9 @@
         <v>1034</v>
       </c>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3909,8 +3934,9 @@
       <c r="D2" s="9"/>
       <c r="I2" s="9"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3923,8 +3949,9 @@
       <c r="D3" s="9"/>
       <c r="I3" s="9"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3937,8 +3964,9 @@
       <c r="D4" s="8"/>
       <c r="I4" s="8"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3951,8 +3979,9 @@
       <c r="D5" s="8"/>
       <c r="I5" s="8"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1044</v>
       </c>
@@ -3963,8 +3992,9 @@
       <c r="D6" s="4"/>
       <c r="I6" s="4"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1045</v>
       </c>
@@ -3975,8 +4005,9 @@
       <c r="D7" s="4"/>
       <c r="I7" s="4"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1042</v>
       </c>
@@ -3987,8 +4018,9 @@
       <c r="D8" s="4"/>
       <c r="I8" s="4"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1046</v>
       </c>
@@ -3999,8 +4031,9 @@
       <c r="D9" s="4"/>
       <c r="I9" s="4"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1047</v>
       </c>
@@ -4011,8 +4044,9 @@
       <c r="D10" s="4"/>
       <c r="I10" s="4"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1059</v>
       </c>
@@ -4023,8 +4057,9 @@
       <c r="D11" s="4"/>
       <c r="I11" s="4"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1048</v>
       </c>
@@ -4035,8 +4070,9 @@
       <c r="D12" s="4"/>
       <c r="I12" s="4"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>1049</v>
       </c>
@@ -4047,8 +4083,9 @@
       <c r="D13" s="4"/>
       <c r="I13" s="4"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1050</v>
       </c>
@@ -4059,8 +4096,9 @@
       <c r="D14" s="4"/>
       <c r="I14" s="4"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1053</v>
       </c>
@@ -4071,8 +4109,9 @@
       <c r="D15" s="4"/>
       <c r="I15" s="4"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1057</v>
       </c>
@@ -4083,13 +4122,14 @@
       <c r="D16" s="4"/>
       <c r="I16" s="4"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="18" spans="1:13" s="41" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="18" spans="1:14" s="41" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1040</v>
       </c>
@@ -4098,7 +4138,7 @@
       <c r="G19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
@@ -4107,7 +4147,7 @@
       <c r="G20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:13" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>11</v>
       </c>
@@ -4141,14 +4181,17 @@
       <c r="K21" s="20" t="s">
         <v>1042</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L21" s="20" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="N21" s="22" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>21</v>
       </c>
@@ -4178,14 +4221,17 @@
       <c r="K22" t="s">
         <v>779</v>
       </c>
-      <c r="L22" s="31" t="s">
+      <c r="L22" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M22" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="29" t="s">
+      <c r="N22" s="29" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>25</v>
       </c>
@@ -4216,11 +4262,12 @@
         <v>780</v>
       </c>
       <c r="L23" s="29"/>
-      <c r="M23" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="29"/>
+      <c r="N23" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>27</v>
       </c>
@@ -4251,11 +4298,12 @@
         <v>781</v>
       </c>
       <c r="L24" s="29"/>
-      <c r="M24" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="29"/>
+      <c r="N24" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>31</v>
       </c>
@@ -4286,11 +4334,12 @@
         <v>782</v>
       </c>
       <c r="L25" s="29"/>
-      <c r="M25" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="29"/>
+      <c r="N25" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>34</v>
       </c>
@@ -4321,11 +4370,12 @@
         <v>783</v>
       </c>
       <c r="L26" s="29"/>
-      <c r="M26" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="29"/>
+      <c r="N26" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>37</v>
       </c>
@@ -4358,11 +4408,12 @@
         <v>784</v>
       </c>
       <c r="L27" s="29"/>
-      <c r="M27" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M27" s="29"/>
+      <c r="N27" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>40</v>
       </c>
@@ -4395,11 +4446,12 @@
         <v>785</v>
       </c>
       <c r="L28" s="29"/>
-      <c r="M28" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="29"/>
+      <c r="N28" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>43</v>
       </c>
@@ -4432,11 +4484,12 @@
         <v>786</v>
       </c>
       <c r="L29" s="29"/>
-      <c r="M29" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="29"/>
+      <c r="N29" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>46</v>
       </c>
@@ -4469,11 +4522,12 @@
         <v>787</v>
       </c>
       <c r="L30" s="29"/>
-      <c r="M30" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M30" s="29"/>
+      <c r="N30" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>49</v>
       </c>
@@ -4504,11 +4558,12 @@
         <v>788</v>
       </c>
       <c r="L31" s="29"/>
-      <c r="M31" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="29"/>
+      <c r="N31" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>52</v>
       </c>
@@ -4539,11 +4594,12 @@
         <v>789</v>
       </c>
       <c r="L32" s="29"/>
-      <c r="M32" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="29"/>
+      <c r="N32" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>55</v>
       </c>
@@ -4574,11 +4630,12 @@
         <v>1036</v>
       </c>
       <c r="L33" s="29"/>
-      <c r="M33" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M33" s="29"/>
+      <c r="N33" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>57</v>
       </c>
@@ -4609,11 +4666,12 @@
         <v>790</v>
       </c>
       <c r="L34" s="29"/>
-      <c r="M34" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="29"/>
+      <c r="N34" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>60</v>
       </c>
@@ -4644,11 +4702,12 @@
         <v>791</v>
       </c>
       <c r="L35" s="29"/>
-      <c r="M35" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="29"/>
+      <c r="N35" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>63</v>
       </c>
@@ -4679,11 +4738,12 @@
         <v>792</v>
       </c>
       <c r="L36" s="29"/>
-      <c r="M36" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M36" s="29"/>
+      <c r="N36" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>65</v>
       </c>
@@ -4714,11 +4774,12 @@
         <v>793</v>
       </c>
       <c r="L37" s="29"/>
-      <c r="M37" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="29"/>
+      <c r="N37" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>68</v>
       </c>
@@ -4748,12 +4809,13 @@
       <c r="K38" t="s">
         <v>794</v>
       </c>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L38"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>71</v>
       </c>
@@ -4784,11 +4846,12 @@
         <v>795</v>
       </c>
       <c r="L39" s="29"/>
-      <c r="M39" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="29"/>
+      <c r="N39" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>74</v>
       </c>
@@ -4818,12 +4881,13 @@
       <c r="K40" t="s">
         <v>796</v>
       </c>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L40"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>77</v>
       </c>
@@ -4854,11 +4918,12 @@
         <v>797</v>
       </c>
       <c r="L41" s="29"/>
-      <c r="M41" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M41" s="29"/>
+      <c r="N41" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>80</v>
       </c>
@@ -4889,11 +4954,12 @@
         <v>798</v>
       </c>
       <c r="L42" s="29"/>
-      <c r="M42" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M42" s="29"/>
+      <c r="N42" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>83</v>
       </c>
@@ -4924,11 +4990,12 @@
         <v>799</v>
       </c>
       <c r="L43" s="29"/>
-      <c r="M43" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="29"/>
+      <c r="N43" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>85</v>
       </c>
@@ -4959,11 +5026,12 @@
         <v>800</v>
       </c>
       <c r="L44" s="29"/>
-      <c r="M44" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M44" s="29"/>
+      <c r="N44" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>88</v>
       </c>
@@ -4994,11 +5062,12 @@
         <v>801</v>
       </c>
       <c r="L45" s="29"/>
-      <c r="M45" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M45" s="29"/>
+      <c r="N45" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>91</v>
       </c>
@@ -5029,11 +5098,12 @@
         <v>802</v>
       </c>
       <c r="L46" s="29"/>
-      <c r="M46" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M46" s="29"/>
+      <c r="N46" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>94</v>
       </c>
@@ -5064,11 +5134,12 @@
         <v>803</v>
       </c>
       <c r="L47" s="29"/>
-      <c r="M47" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M47" s="29"/>
+      <c r="N47" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>97</v>
       </c>
@@ -5101,11 +5172,12 @@
         <v>804</v>
       </c>
       <c r="L48" s="29"/>
-      <c r="M48" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M48" s="29"/>
+      <c r="N48" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>100</v>
       </c>
@@ -5138,11 +5210,12 @@
         <v>805</v>
       </c>
       <c r="L49" s="29"/>
-      <c r="M49" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M49" s="29"/>
+      <c r="N49" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>103</v>
       </c>
@@ -5173,11 +5246,12 @@
         <v>806</v>
       </c>
       <c r="L50" s="29"/>
-      <c r="M50" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M50" s="29"/>
+      <c r="N50" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>105</v>
       </c>
@@ -5208,11 +5282,12 @@
         <v>807</v>
       </c>
       <c r="L51" s="29"/>
-      <c r="M51" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M51" s="29"/>
+      <c r="N51" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>108</v>
       </c>
@@ -5243,11 +5318,12 @@
         <v>808</v>
       </c>
       <c r="L52" s="29"/>
-      <c r="M52" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M52" s="29"/>
+      <c r="N52" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>111</v>
       </c>
@@ -5278,11 +5354,12 @@
         <v>809</v>
       </c>
       <c r="L53" s="29"/>
-      <c r="M53" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M53" s="29"/>
+      <c r="N53" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>114</v>
       </c>
@@ -5313,11 +5390,12 @@
         <v>810</v>
       </c>
       <c r="L54" s="29"/>
-      <c r="M54" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M54" s="29"/>
+      <c r="N54" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>117</v>
       </c>
@@ -5348,11 +5426,12 @@
         <v>811</v>
       </c>
       <c r="L55" s="29"/>
-      <c r="M55" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M55" s="29"/>
+      <c r="N55" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>120</v>
       </c>
@@ -5383,11 +5462,12 @@
         <v>812</v>
       </c>
       <c r="L56" s="29"/>
-      <c r="M56" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M56" s="29"/>
+      <c r="N56" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>123</v>
       </c>
@@ -5418,11 +5498,12 @@
         <v>813</v>
       </c>
       <c r="L57" s="29"/>
-      <c r="M57" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M57" s="29"/>
+      <c r="N57" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>126</v>
       </c>
@@ -5453,11 +5534,12 @@
         <v>814</v>
       </c>
       <c r="L58" s="29"/>
-      <c r="M58" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M58" s="29"/>
+      <c r="N58" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>129</v>
       </c>
@@ -5488,11 +5570,12 @@
         <v>815</v>
       </c>
       <c r="L59" s="29"/>
-      <c r="M59" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M59" s="29"/>
+      <c r="N59" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>132</v>
       </c>
@@ -5522,14 +5605,17 @@
       <c r="K60" s="29" t="s">
         <v>816</v>
       </c>
-      <c r="L60" s="31" t="s">
+      <c r="L60" s="24" t="s">
+        <v>1062</v>
+      </c>
+      <c r="M60" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="M60" s="29" t="s">
+      <c r="N60" s="29" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>136</v>
       </c>
@@ -5562,11 +5648,12 @@
         <v>817</v>
       </c>
       <c r="L61" s="29"/>
-      <c r="M61" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M61" s="29"/>
+      <c r="N61" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>139</v>
       </c>
@@ -5599,11 +5686,12 @@
         <v>818</v>
       </c>
       <c r="L62" s="29"/>
-      <c r="M62" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M62" s="29"/>
+      <c r="N62" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>142</v>
       </c>
@@ -5634,11 +5722,12 @@
         <v>819</v>
       </c>
       <c r="L63" s="29"/>
-      <c r="M63" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M63" s="29"/>
+      <c r="N63" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
         <v>145</v>
       </c>
@@ -5669,11 +5758,12 @@
         <v>820</v>
       </c>
       <c r="L64" s="29"/>
-      <c r="M64" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M64" s="29"/>
+      <c r="N64" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
         <v>148</v>
       </c>
@@ -5704,11 +5794,12 @@
         <v>821</v>
       </c>
       <c r="L65" s="29"/>
-      <c r="M65" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M65" s="29"/>
+      <c r="N65" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>151</v>
       </c>
@@ -5739,11 +5830,12 @@
         <v>822</v>
       </c>
       <c r="L66" s="29"/>
-      <c r="M66" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M66" s="29"/>
+      <c r="N66" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>154</v>
       </c>
@@ -5774,11 +5866,12 @@
         <v>823</v>
       </c>
       <c r="L67" s="29"/>
-      <c r="M67" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M67" s="29"/>
+      <c r="N67" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>157</v>
       </c>
@@ -5808,14 +5901,17 @@
       <c r="K68" s="29" t="s">
         <v>824</v>
       </c>
-      <c r="L68" s="31" t="s">
+      <c r="L68" s="29" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M68" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="M68" s="29" t="s">
+      <c r="N68" s="29" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>161</v>
       </c>
@@ -5848,11 +5944,12 @@
         <v>825</v>
       </c>
       <c r="L69" s="29"/>
-      <c r="M69" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M69" s="29"/>
+      <c r="N69" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
         <v>164</v>
       </c>
@@ -5885,11 +5982,12 @@
         <v>826</v>
       </c>
       <c r="L70" s="29"/>
-      <c r="M70" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M70" s="29"/>
+      <c r="N70" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
         <v>167</v>
       </c>
@@ -5920,11 +6018,12 @@
         <v>827</v>
       </c>
       <c r="L71" s="29"/>
-      <c r="M71" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M71" s="29"/>
+      <c r="N71" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
         <v>170</v>
       </c>
@@ -5954,14 +6053,17 @@
       <c r="K72" s="29" t="s">
         <v>828</v>
       </c>
-      <c r="L72" s="31" t="s">
+      <c r="L72" s="29" t="s">
+        <v>1064</v>
+      </c>
+      <c r="M72" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="M72" s="29" t="s">
+      <c r="N72" s="29" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
         <v>174</v>
       </c>
@@ -5994,11 +6096,12 @@
         <v>829</v>
       </c>
       <c r="L73" s="29"/>
-      <c r="M73" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M73" s="29"/>
+      <c r="N73" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
         <v>177</v>
       </c>
@@ -6031,11 +6134,12 @@
         <v>830</v>
       </c>
       <c r="L74" s="29"/>
-      <c r="M74" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M74" s="29"/>
+      <c r="N74" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
         <v>180</v>
       </c>
@@ -6066,11 +6170,12 @@
         <v>831</v>
       </c>
       <c r="L75" s="29"/>
-      <c r="M75" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M75" s="29"/>
+      <c r="N75" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>183</v>
       </c>
@@ -6101,11 +6206,12 @@
         <v>832</v>
       </c>
       <c r="L76" s="29"/>
-      <c r="M76" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M76" s="29"/>
+      <c r="N76" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
         <v>185</v>
       </c>
@@ -6136,11 +6242,12 @@
         <v>833</v>
       </c>
       <c r="L77" s="29"/>
-      <c r="M77" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M77" s="29"/>
+      <c r="N77" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>188</v>
       </c>
@@ -6171,11 +6278,12 @@
         <v>834</v>
       </c>
       <c r="L78" s="29"/>
-      <c r="M78" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M78" s="29"/>
+      <c r="N78" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
         <v>191</v>
       </c>
@@ -6206,11 +6314,12 @@
         <v>835</v>
       </c>
       <c r="L79" s="29"/>
-      <c r="M79" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M79" s="29"/>
+      <c r="N79" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
         <v>194</v>
       </c>
@@ -6241,11 +6350,12 @@
         <v>836</v>
       </c>
       <c r="L80" s="29"/>
-      <c r="M80" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M80" s="29"/>
+      <c r="N80" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
         <v>197</v>
       </c>
@@ -6276,11 +6386,12 @@
         <v>837</v>
       </c>
       <c r="L81" s="29"/>
-      <c r="M81" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M81" s="29"/>
+      <c r="N81" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
         <v>200</v>
       </c>
@@ -6311,11 +6422,12 @@
         <v>838</v>
       </c>
       <c r="L82" s="29"/>
-      <c r="M82" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M82" s="29"/>
+      <c r="N82" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
         <v>203</v>
       </c>
@@ -6346,11 +6458,12 @@
         <v>839</v>
       </c>
       <c r="L83" s="29"/>
-      <c r="M83" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M83" s="29"/>
+      <c r="N83" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>206</v>
       </c>
@@ -6381,11 +6494,12 @@
         <v>840</v>
       </c>
       <c r="L84" s="29"/>
-      <c r="M84" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M84" s="29"/>
+      <c r="N84" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
         <v>209</v>
       </c>
@@ -6416,11 +6530,12 @@
         <v>841</v>
       </c>
       <c r="L85" s="29"/>
-      <c r="M85" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M85" s="29"/>
+      <c r="N85" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
         <v>212</v>
       </c>
@@ -6451,11 +6566,12 @@
         <v>842</v>
       </c>
       <c r="L86" s="29"/>
-      <c r="M86" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M86" s="29"/>
+      <c r="N86" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>215</v>
       </c>
@@ -6486,11 +6602,12 @@
         <v>843</v>
       </c>
       <c r="L87" s="29"/>
-      <c r="M87" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M87" s="29"/>
+      <c r="N87" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
         <v>218</v>
       </c>
@@ -6521,11 +6638,12 @@
         <v>844</v>
       </c>
       <c r="L88" s="29"/>
-      <c r="M88" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M88" s="29"/>
+      <c r="N88" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
         <v>221</v>
       </c>
@@ -6556,11 +6674,12 @@
         <v>845</v>
       </c>
       <c r="L89" s="29"/>
-      <c r="M89" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M89" s="29"/>
+      <c r="N89" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>224</v>
       </c>
@@ -6591,11 +6710,12 @@
         <v>846</v>
       </c>
       <c r="L90" s="29"/>
-      <c r="M90" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M90" s="29"/>
+      <c r="N90" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
         <v>227</v>
       </c>
@@ -6626,11 +6746,12 @@
         <v>847</v>
       </c>
       <c r="L91" s="29"/>
-      <c r="M91" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M91" s="29"/>
+      <c r="N91" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
         <v>230</v>
       </c>
@@ -6661,11 +6782,12 @@
         <v>848</v>
       </c>
       <c r="L92" s="29"/>
-      <c r="M92" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M92" s="29"/>
+      <c r="N92" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>233</v>
       </c>
@@ -6696,11 +6818,12 @@
         <v>849</v>
       </c>
       <c r="L93" s="29"/>
-      <c r="M93" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M93" s="29"/>
+      <c r="N93" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>236</v>
       </c>
@@ -6731,11 +6854,12 @@
         <v>850</v>
       </c>
       <c r="L94" s="29"/>
-      <c r="M94" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M94" s="29"/>
+      <c r="N94" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
         <v>239</v>
       </c>
@@ -6766,11 +6890,12 @@
         <v>851</v>
       </c>
       <c r="L95" s="29"/>
-      <c r="M95" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M95" s="29"/>
+      <c r="N95" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
         <v>242</v>
       </c>
@@ -6801,11 +6926,12 @@
         <v>852</v>
       </c>
       <c r="L96" s="29"/>
-      <c r="M96" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M96" s="29"/>
+      <c r="N96" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
         <v>245</v>
       </c>
@@ -6836,11 +6962,12 @@
         <v>853</v>
       </c>
       <c r="L97" s="29"/>
-      <c r="M97" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M97" s="29"/>
+      <c r="N97" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
         <v>248</v>
       </c>
@@ -6871,11 +6998,12 @@
         <v>854</v>
       </c>
       <c r="L98" s="29"/>
-      <c r="M98" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M98" s="29"/>
+      <c r="N98" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
         <v>251</v>
       </c>
@@ -6906,11 +7034,12 @@
         <v>855</v>
       </c>
       <c r="L99" s="29"/>
-      <c r="M99" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M99" s="29"/>
+      <c r="N99" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
         <v>254</v>
       </c>
@@ -6941,11 +7070,12 @@
         <v>856</v>
       </c>
       <c r="L100" s="29"/>
-      <c r="M100" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M100" s="29"/>
+      <c r="N100" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
         <v>257</v>
       </c>
@@ -6976,11 +7106,12 @@
         <v>857</v>
       </c>
       <c r="L101" s="29"/>
-      <c r="M101" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M101" s="29"/>
+      <c r="N101" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>260</v>
       </c>
@@ -7011,11 +7142,12 @@
         <v>858</v>
       </c>
       <c r="L102" s="29"/>
-      <c r="M102" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M102" s="29"/>
+      <c r="N102" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
         <v>263</v>
       </c>
@@ -7046,11 +7178,12 @@
         <v>859</v>
       </c>
       <c r="L103" s="29"/>
-      <c r="M103" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M103" s="29"/>
+      <c r="N103" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>266</v>
       </c>
@@ -7081,11 +7214,12 @@
         <v>860</v>
       </c>
       <c r="L104" s="29"/>
-      <c r="M104" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M104" s="29"/>
+      <c r="N104" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>269</v>
       </c>
@@ -7116,11 +7250,12 @@
         <v>861</v>
       </c>
       <c r="L105" s="29"/>
-      <c r="M105" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M105" s="29"/>
+      <c r="N105" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
         <v>272</v>
       </c>
@@ -7151,11 +7286,12 @@
         <v>862</v>
       </c>
       <c r="L106" s="29"/>
-      <c r="M106" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M106" s="29"/>
+      <c r="N106" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
         <v>274</v>
       </c>
@@ -7186,11 +7322,12 @@
         <v>863</v>
       </c>
       <c r="L107" s="29"/>
-      <c r="M107" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M107" s="29"/>
+      <c r="N107" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
         <v>277</v>
       </c>
@@ -7221,11 +7358,12 @@
         <v>864</v>
       </c>
       <c r="L108" s="29"/>
-      <c r="M108" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M108" s="29"/>
+      <c r="N108" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
         <v>280</v>
       </c>
@@ -7256,11 +7394,12 @@
         <v>865</v>
       </c>
       <c r="L109" s="29"/>
-      <c r="M109" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M109" s="29"/>
+      <c r="N109" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
         <v>283</v>
       </c>
@@ -7291,11 +7430,12 @@
         <v>866</v>
       </c>
       <c r="L110" s="29"/>
-      <c r="M110" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M110" s="29"/>
+      <c r="N110" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
         <v>286</v>
       </c>
@@ -7326,11 +7466,12 @@
         <v>867</v>
       </c>
       <c r="L111" s="29"/>
-      <c r="M111" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M111" s="29"/>
+      <c r="N111" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
         <v>288</v>
       </c>
@@ -7361,11 +7502,12 @@
         <v>868</v>
       </c>
       <c r="L112" s="29"/>
-      <c r="M112" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M112" s="29"/>
+      <c r="N112" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
         <v>291</v>
       </c>
@@ -7396,11 +7538,12 @@
         <v>869</v>
       </c>
       <c r="L113" s="29"/>
-      <c r="M113" s="29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M113" s="29"/>
+      <c r="N113" s="29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="34" t="s">
         <v>294</v>
       </c>
@@ -7431,11 +7574,12 @@
         <v>870</v>
       </c>
       <c r="L114" s="36"/>
-      <c r="M114" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M114" s="36"/>
+      <c r="N114" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="34" t="s">
         <v>297</v>
       </c>
@@ -7466,11 +7610,12 @@
         <v>871</v>
       </c>
       <c r="L115" s="36"/>
-      <c r="M115" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M115" s="36"/>
+      <c r="N115" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="34" t="s">
         <v>300</v>
       </c>
@@ -7501,11 +7646,12 @@
         <v>872</v>
       </c>
       <c r="L116" s="36"/>
-      <c r="M116" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M116" s="36"/>
+      <c r="N116" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="34" t="s">
         <v>303</v>
       </c>
@@ -7536,11 +7682,12 @@
         <v>873</v>
       </c>
       <c r="L117" s="36"/>
-      <c r="M117" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M117" s="36"/>
+      <c r="N117" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="34" t="s">
         <v>305</v>
       </c>
@@ -7571,11 +7718,12 @@
         <v>874</v>
       </c>
       <c r="L118" s="36"/>
-      <c r="M118" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M118" s="36"/>
+      <c r="N118" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="34" t="s">
         <v>308</v>
       </c>
@@ -7606,11 +7754,12 @@
         <v>875</v>
       </c>
       <c r="L119" s="36"/>
-      <c r="M119" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M119" s="36"/>
+      <c r="N119" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="34" t="s">
         <v>311</v>
       </c>
@@ -7641,11 +7790,12 @@
         <v>876</v>
       </c>
       <c r="L120" s="36"/>
-      <c r="M120" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M120" s="36"/>
+      <c r="N120" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="34" t="s">
         <v>314</v>
       </c>
@@ -7676,11 +7826,12 @@
         <v>877</v>
       </c>
       <c r="L121" s="36"/>
-      <c r="M121" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M121" s="36"/>
+      <c r="N121" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="34" t="s">
         <v>317</v>
       </c>
@@ -7711,11 +7862,12 @@
         <v>878</v>
       </c>
       <c r="L122" s="36"/>
-      <c r="M122" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M122" s="36"/>
+      <c r="N122" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="34" t="s">
         <v>320</v>
       </c>
@@ -7746,11 +7898,12 @@
         <v>879</v>
       </c>
       <c r="L123" s="36"/>
-      <c r="M123" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M123" s="36"/>
+      <c r="N123" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="34" t="s">
         <v>323</v>
       </c>
@@ -7783,11 +7936,12 @@
         <v>880</v>
       </c>
       <c r="L124" s="36"/>
-      <c r="M124" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M124" s="36"/>
+      <c r="N124" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="34" t="s">
         <v>326</v>
       </c>
@@ -7820,11 +7974,12 @@
         <v>881</v>
       </c>
       <c r="L125" s="36"/>
-      <c r="M125" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M125" s="36"/>
+      <c r="N125" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="34" t="s">
         <v>329</v>
       </c>
@@ -7855,11 +8010,12 @@
         <v>882</v>
       </c>
       <c r="L126" s="36"/>
-      <c r="M126" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M126" s="36"/>
+      <c r="N126" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="34" t="s">
         <v>332</v>
       </c>
@@ -7890,11 +8046,12 @@
         <v>883</v>
       </c>
       <c r="L127" s="36"/>
-      <c r="M127" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M127" s="36"/>
+      <c r="N127" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="34" t="s">
         <v>334</v>
       </c>
@@ -7925,11 +8082,12 @@
         <v>884</v>
       </c>
       <c r="L128" s="36"/>
-      <c r="M128" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M128" s="36"/>
+      <c r="N128" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="34" t="s">
         <v>337</v>
       </c>
@@ -7960,11 +8118,12 @@
         <v>885</v>
       </c>
       <c r="L129" s="36"/>
-      <c r="M129" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M129" s="36"/>
+      <c r="N129" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="34" t="s">
         <v>340</v>
       </c>
@@ -7997,11 +8156,12 @@
         <v>886</v>
       </c>
       <c r="L130" s="36"/>
-      <c r="M130" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M130" s="36"/>
+      <c r="N130" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="34" t="s">
         <v>343</v>
       </c>
@@ -8034,11 +8194,12 @@
         <v>887</v>
       </c>
       <c r="L131" s="36"/>
-      <c r="M131" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M131" s="36"/>
+      <c r="N131" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="34" t="s">
         <v>346</v>
       </c>
@@ -8069,11 +8230,12 @@
         <v>888</v>
       </c>
       <c r="L132" s="36"/>
-      <c r="M132" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M132" s="36"/>
+      <c r="N132" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="34" t="s">
         <v>349</v>
       </c>
@@ -8104,11 +8266,12 @@
         <v>889</v>
       </c>
       <c r="L133" s="36"/>
-      <c r="M133" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M133" s="36"/>
+      <c r="N133" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="34" t="s">
         <v>352</v>
       </c>
@@ -8139,11 +8302,12 @@
         <v>890</v>
       </c>
       <c r="L134" s="36"/>
-      <c r="M134" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M134" s="36"/>
+      <c r="N134" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="34" t="s">
         <v>355</v>
       </c>
@@ -8174,11 +8338,12 @@
         <v>891</v>
       </c>
       <c r="L135" s="36"/>
-      <c r="M135" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M135" s="36"/>
+      <c r="N135" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="34" t="s">
         <v>358</v>
       </c>
@@ -8209,11 +8374,12 @@
         <v>892</v>
       </c>
       <c r="L136" s="36"/>
-      <c r="M136" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M136" s="36"/>
+      <c r="N136" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="34" t="s">
         <v>361</v>
       </c>
@@ -8244,11 +8410,12 @@
         <v>893</v>
       </c>
       <c r="L137" s="36"/>
-      <c r="M137" s="36" t="s">
+      <c r="M137" s="36"/>
+      <c r="N137" s="36" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="138" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="34" t="s">
         <v>363</v>
       </c>
@@ -8279,11 +8446,12 @@
         <v>894</v>
       </c>
       <c r="L138" s="36"/>
-      <c r="M138" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M138" s="36"/>
+      <c r="N138" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="34" t="s">
         <v>365</v>
       </c>
@@ -8314,11 +8482,12 @@
         <v>895</v>
       </c>
       <c r="L139" s="36"/>
-      <c r="M139" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M139" s="36"/>
+      <c r="N139" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="34" t="s">
         <v>368</v>
       </c>
@@ -8349,11 +8518,12 @@
         <v>896</v>
       </c>
       <c r="L140" s="36"/>
-      <c r="M140" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M140" s="36"/>
+      <c r="N140" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="34" t="s">
         <v>371</v>
       </c>
@@ -8384,11 +8554,12 @@
         <v>897</v>
       </c>
       <c r="L141" s="36"/>
-      <c r="M141" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M141" s="36"/>
+      <c r="N141" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="34" t="s">
         <v>374</v>
       </c>
@@ -8419,11 +8590,12 @@
         <v>898</v>
       </c>
       <c r="L142" s="36"/>
-      <c r="M142" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M142" s="36"/>
+      <c r="N142" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="34" t="s">
         <v>377</v>
       </c>
@@ -8454,11 +8626,12 @@
         <v>899</v>
       </c>
       <c r="L143" s="36"/>
-      <c r="M143" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M143" s="36"/>
+      <c r="N143" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="34" t="s">
         <v>380</v>
       </c>
@@ -8489,11 +8662,12 @@
         <v>900</v>
       </c>
       <c r="L144" s="36"/>
-      <c r="M144" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M144" s="36"/>
+      <c r="N144" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="34" t="s">
         <v>383</v>
       </c>
@@ -8524,11 +8698,12 @@
         <v>901</v>
       </c>
       <c r="L145" s="36"/>
-      <c r="M145" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M145" s="36"/>
+      <c r="N145" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="34" t="s">
         <v>386</v>
       </c>
@@ -8559,11 +8734,12 @@
         <v>902</v>
       </c>
       <c r="L146" s="36"/>
-      <c r="M146" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M146" s="36"/>
+      <c r="N146" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="34" t="s">
         <v>389</v>
       </c>
@@ -8594,11 +8770,12 @@
         <v>903</v>
       </c>
       <c r="L147" s="36"/>
-      <c r="M147" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M147" s="36"/>
+      <c r="N147" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="34" t="s">
         <v>392</v>
       </c>
@@ -8629,11 +8806,12 @@
         <v>904</v>
       </c>
       <c r="L148" s="36"/>
-      <c r="M148" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M148" s="36"/>
+      <c r="N148" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="34" t="s">
         <v>395</v>
       </c>
@@ -8664,11 +8842,12 @@
         <v>905</v>
       </c>
       <c r="L149" s="36"/>
-      <c r="M149" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M149" s="36"/>
+      <c r="N149" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="34" t="s">
         <v>398</v>
       </c>
@@ -8699,11 +8878,12 @@
         <v>906</v>
       </c>
       <c r="L150" s="36"/>
-      <c r="M150" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M150" s="36"/>
+      <c r="N150" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="34" t="s">
         <v>401</v>
       </c>
@@ -8734,11 +8914,12 @@
         <v>907</v>
       </c>
       <c r="L151" s="36"/>
-      <c r="M151" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M151" s="36"/>
+      <c r="N151" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="34" t="s">
         <v>404</v>
       </c>
@@ -8769,11 +8950,12 @@
         <v>908</v>
       </c>
       <c r="L152" s="36"/>
-      <c r="M152" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M152" s="36"/>
+      <c r="N152" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="34" t="s">
         <v>407</v>
       </c>
@@ -8804,11 +8986,12 @@
         <v>909</v>
       </c>
       <c r="L153" s="36"/>
-      <c r="M153" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M153" s="36"/>
+      <c r="N153" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="34" t="s">
         <v>410</v>
       </c>
@@ -8839,11 +9022,12 @@
         <v>910</v>
       </c>
       <c r="L154" s="36"/>
-      <c r="M154" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M154" s="36"/>
+      <c r="N154" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="34" t="s">
         <v>413</v>
       </c>
@@ -8874,11 +9058,12 @@
         <v>911</v>
       </c>
       <c r="L155" s="36"/>
-      <c r="M155" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M155" s="36"/>
+      <c r="N155" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="34" t="s">
         <v>415</v>
       </c>
@@ -8909,11 +9094,12 @@
         <v>912</v>
       </c>
       <c r="L156" s="36"/>
-      <c r="M156" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M156" s="36"/>
+      <c r="N156" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="34" t="s">
         <v>418</v>
       </c>
@@ -8944,11 +9130,12 @@
         <v>913</v>
       </c>
       <c r="L157" s="36"/>
-      <c r="M157" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M157" s="36"/>
+      <c r="N157" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="34" t="s">
         <v>421</v>
       </c>
@@ -8979,11 +9166,12 @@
         <v>914</v>
       </c>
       <c r="L158" s="36"/>
-      <c r="M158" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M158" s="36"/>
+      <c r="N158" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="34" t="s">
         <v>424</v>
       </c>
@@ -9014,11 +9202,12 @@
         <v>915</v>
       </c>
       <c r="L159" s="36"/>
-      <c r="M159" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M159" s="36"/>
+      <c r="N159" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="34" t="s">
         <v>427</v>
       </c>
@@ -9049,11 +9238,12 @@
         <v>916</v>
       </c>
       <c r="L160" s="36"/>
-      <c r="M160" s="36" t="s">
+      <c r="M160" s="36"/>
+      <c r="N160" s="36" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="161" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="34" t="s">
         <v>429</v>
       </c>
@@ -9084,11 +9274,12 @@
         <v>917</v>
       </c>
       <c r="L161" s="36"/>
-      <c r="M161" s="36" t="s">
+      <c r="M161" s="36"/>
+      <c r="N161" s="36" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="162" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="34" t="s">
         <v>432</v>
       </c>
@@ -9119,11 +9310,12 @@
         <v>918</v>
       </c>
       <c r="L162" s="36"/>
-      <c r="M162" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M162" s="36"/>
+      <c r="N162" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="34" t="s">
         <v>435</v>
       </c>
@@ -9154,11 +9346,12 @@
         <v>919</v>
       </c>
       <c r="L163" s="36"/>
-      <c r="M163" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M163" s="36"/>
+      <c r="N163" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="34" t="s">
         <v>438</v>
       </c>
@@ -9189,11 +9382,12 @@
         <v>920</v>
       </c>
       <c r="L164" s="36"/>
-      <c r="M164" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M164" s="36"/>
+      <c r="N164" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="34" t="s">
         <v>441</v>
       </c>
@@ -9224,11 +9418,12 @@
         <v>921</v>
       </c>
       <c r="L165" s="36"/>
-      <c r="M165" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M165" s="36"/>
+      <c r="N165" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="34" t="s">
         <v>444</v>
       </c>
@@ -9259,11 +9454,12 @@
         <v>922</v>
       </c>
       <c r="L166" s="36"/>
-      <c r="M166" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M166" s="36"/>
+      <c r="N166" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="34" t="s">
         <v>447</v>
       </c>
@@ -9294,11 +9490,12 @@
         <v>923</v>
       </c>
       <c r="L167" s="36"/>
-      <c r="M167" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M167" s="36"/>
+      <c r="N167" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="34" t="s">
         <v>450</v>
       </c>
@@ -9329,11 +9526,12 @@
         <v>924</v>
       </c>
       <c r="L168" s="36"/>
-      <c r="M168" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M168" s="36"/>
+      <c r="N168" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="34" t="s">
         <v>453</v>
       </c>
@@ -9364,11 +9562,12 @@
         <v>925</v>
       </c>
       <c r="L169" s="36"/>
-      <c r="M169" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M169" s="36"/>
+      <c r="N169" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="34" t="s">
         <v>456</v>
       </c>
@@ -9399,11 +9598,12 @@
         <v>926</v>
       </c>
       <c r="L170" s="36"/>
-      <c r="M170" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M170" s="36"/>
+      <c r="N170" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="34" t="s">
         <v>459</v>
       </c>
@@ -9434,11 +9634,12 @@
         <v>927</v>
       </c>
       <c r="L171" s="36"/>
-      <c r="M171" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M171" s="36"/>
+      <c r="N171" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="34" t="s">
         <v>462</v>
       </c>
@@ -9469,11 +9670,12 @@
         <v>928</v>
       </c>
       <c r="L172" s="36"/>
-      <c r="M172" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M172" s="36"/>
+      <c r="N172" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="34" t="s">
         <v>465</v>
       </c>
@@ -9504,11 +9706,12 @@
         <v>929</v>
       </c>
       <c r="L173" s="36"/>
-      <c r="M173" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M173" s="36"/>
+      <c r="N173" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="34" t="s">
         <v>468</v>
       </c>
@@ -9539,11 +9742,12 @@
         <v>930</v>
       </c>
       <c r="L174" s="36"/>
-      <c r="M174" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M174" s="36"/>
+      <c r="N174" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="34" t="s">
         <v>471</v>
       </c>
@@ -9574,11 +9778,12 @@
         <v>931</v>
       </c>
       <c r="L175" s="36"/>
-      <c r="M175" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M175" s="36"/>
+      <c r="N175" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="34" t="s">
         <v>474</v>
       </c>
@@ -9609,11 +9814,12 @@
         <v>932</v>
       </c>
       <c r="L176" s="36"/>
-      <c r="M176" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M176" s="36"/>
+      <c r="N176" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="34" t="s">
         <v>477</v>
       </c>
@@ -9644,11 +9850,12 @@
         <v>933</v>
       </c>
       <c r="L177" s="36"/>
-      <c r="M177" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M177" s="36"/>
+      <c r="N177" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="34" t="s">
         <v>479</v>
       </c>
@@ -9679,11 +9886,12 @@
         <v>934</v>
       </c>
       <c r="L178" s="36"/>
-      <c r="M178" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M178" s="36"/>
+      <c r="N178" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="34" t="s">
         <v>482</v>
       </c>
@@ -9713,14 +9921,17 @@
       <c r="K179" s="36" t="s">
         <v>935</v>
       </c>
-      <c r="L179" s="38" t="s">
+      <c r="L179" s="36" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M179" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="M179" s="36" t="s">
+      <c r="N179" s="36" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="180" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="34" t="s">
         <v>486</v>
       </c>
@@ -9753,11 +9964,12 @@
         <v>936</v>
       </c>
       <c r="L180" s="36"/>
-      <c r="M180" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M180" s="36"/>
+      <c r="N180" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="34" t="s">
         <v>488</v>
       </c>
@@ -9790,11 +10002,12 @@
         <v>937</v>
       </c>
       <c r="L181" s="36"/>
-      <c r="M181" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M181" s="36"/>
+      <c r="N181" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="34" t="s">
         <v>491</v>
       </c>
@@ -9825,11 +10038,12 @@
         <v>938</v>
       </c>
       <c r="L182" s="36"/>
-      <c r="M182" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M182" s="36"/>
+      <c r="N182" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="34" t="s">
         <v>494</v>
       </c>
@@ -9860,11 +10074,12 @@
         <v>939</v>
       </c>
       <c r="L183" s="36"/>
-      <c r="M183" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M183" s="36"/>
+      <c r="N183" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="34" t="s">
         <v>497</v>
       </c>
@@ -9895,11 +10110,12 @@
         <v>940</v>
       </c>
       <c r="L184" s="36"/>
-      <c r="M184" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M184" s="36"/>
+      <c r="N184" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="34" t="s">
         <v>500</v>
       </c>
@@ -9930,11 +10146,12 @@
         <v>941</v>
       </c>
       <c r="L185" s="36"/>
-      <c r="M185" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M185" s="36"/>
+      <c r="N185" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="34" t="s">
         <v>502</v>
       </c>
@@ -9965,11 +10182,12 @@
         <v>942</v>
       </c>
       <c r="L186" s="36"/>
-      <c r="M186" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M186" s="36"/>
+      <c r="N186" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="34" t="s">
         <v>505</v>
       </c>
@@ -10000,11 +10218,12 @@
         <v>943</v>
       </c>
       <c r="L187" s="36"/>
-      <c r="M187" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M187" s="36"/>
+      <c r="N187" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="34" t="s">
         <v>508</v>
       </c>
@@ -10035,11 +10254,12 @@
         <v>944</v>
       </c>
       <c r="L188" s="36"/>
-      <c r="M188" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M188" s="36"/>
+      <c r="N188" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="34" t="s">
         <v>511</v>
       </c>
@@ -10072,11 +10292,12 @@
         <v>945</v>
       </c>
       <c r="L189" s="36"/>
-      <c r="M189" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M189" s="36"/>
+      <c r="N189" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="34" t="s">
         <v>514</v>
       </c>
@@ -10109,11 +10330,12 @@
         <v>946</v>
       </c>
       <c r="L190" s="36"/>
-      <c r="M190" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M190" s="36"/>
+      <c r="N190" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A191" s="34" t="s">
         <v>517</v>
       </c>
@@ -10144,11 +10366,12 @@
         <v>947</v>
       </c>
       <c r="L191" s="36"/>
-      <c r="M191" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M191" s="36"/>
+      <c r="N191" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="34" t="s">
         <v>520</v>
       </c>
@@ -10179,11 +10402,12 @@
         <v>948</v>
       </c>
       <c r="L192" s="36"/>
-      <c r="M192" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M192" s="36"/>
+      <c r="N192" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="34" t="s">
         <v>523</v>
       </c>
@@ -10216,11 +10440,12 @@
         <v>949</v>
       </c>
       <c r="L193" s="36"/>
-      <c r="M193" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M193" s="36"/>
+      <c r="N193" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="34" t="s">
         <v>526</v>
       </c>
@@ -10253,11 +10478,12 @@
         <v>950</v>
       </c>
       <c r="L194" s="36"/>
-      <c r="M194" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M194" s="36"/>
+      <c r="N194" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="34" t="s">
         <v>529</v>
       </c>
@@ -10288,11 +10514,12 @@
         <v>951</v>
       </c>
       <c r="L195" s="36"/>
-      <c r="M195" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M195" s="36"/>
+      <c r="N195" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="34" t="s">
         <v>532</v>
       </c>
@@ -10323,11 +10550,12 @@
         <v>952</v>
       </c>
       <c r="L196" s="36"/>
-      <c r="M196" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M196" s="36"/>
+      <c r="N196" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="34" t="s">
         <v>535</v>
       </c>
@@ -10358,11 +10586,12 @@
         <v>953</v>
       </c>
       <c r="L197" s="36"/>
-      <c r="M197" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M197" s="36"/>
+      <c r="N197" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="34" t="s">
         <v>538</v>
       </c>
@@ -10393,11 +10622,12 @@
         <v>954</v>
       </c>
       <c r="L198" s="36"/>
-      <c r="M198" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M198" s="36"/>
+      <c r="N198" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="34" t="s">
         <v>541</v>
       </c>
@@ -10428,11 +10658,12 @@
         <v>955</v>
       </c>
       <c r="L199" s="36"/>
-      <c r="M199" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M199" s="36"/>
+      <c r="N199" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="34" t="s">
         <v>544</v>
       </c>
@@ -10463,11 +10694,12 @@
         <v>956</v>
       </c>
       <c r="L200" s="36"/>
-      <c r="M200" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M200" s="36"/>
+      <c r="N200" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="34" t="s">
         <v>546</v>
       </c>
@@ -10498,11 +10730,12 @@
         <v>957</v>
       </c>
       <c r="L201" s="36"/>
-      <c r="M201" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M201" s="36"/>
+      <c r="N201" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="34" t="s">
         <v>549</v>
       </c>
@@ -10533,13 +10766,16 @@
         <v>958</v>
       </c>
       <c r="L202" s="36" t="s">
+        <v>1066</v>
+      </c>
+      <c r="M202" s="36" t="s">
         <v>552</v>
       </c>
-      <c r="M202" s="36" t="s">
+      <c r="N202" s="36" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="203" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="34" t="s">
         <v>553</v>
       </c>
@@ -10572,11 +10808,12 @@
         <v>959</v>
       </c>
       <c r="L203" s="36"/>
-      <c r="M203" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M203" s="36"/>
+      <c r="N203" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="34" t="s">
         <v>556</v>
       </c>
@@ -10609,11 +10846,12 @@
         <v>960</v>
       </c>
       <c r="L204" s="36"/>
-      <c r="M204" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M204" s="36"/>
+      <c r="N204" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="34" t="s">
         <v>559</v>
       </c>
@@ -10644,11 +10882,12 @@
         <v>961</v>
       </c>
       <c r="L205" s="36"/>
-      <c r="M205" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M205" s="36"/>
+      <c r="N205" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="34" t="s">
         <v>562</v>
       </c>
@@ -10679,11 +10918,12 @@
         <v>962</v>
       </c>
       <c r="L206" s="36"/>
-      <c r="M206" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M206" s="36"/>
+      <c r="N206" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="34" t="s">
         <v>565</v>
       </c>
@@ -10714,11 +10954,12 @@
         <v>963</v>
       </c>
       <c r="L207" s="36"/>
-      <c r="M207" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M207" s="36"/>
+      <c r="N207" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="34" t="s">
         <v>568</v>
       </c>
@@ -10749,11 +10990,12 @@
         <v>964</v>
       </c>
       <c r="L208" s="36"/>
-      <c r="M208" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M208" s="36"/>
+      <c r="N208" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="34" t="s">
         <v>571</v>
       </c>
@@ -10786,11 +11028,12 @@
         <v>965</v>
       </c>
       <c r="L209" s="36"/>
-      <c r="M209" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M209" s="36"/>
+      <c r="N209" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="34" t="s">
         <v>574</v>
       </c>
@@ -10823,11 +11066,12 @@
         <v>966</v>
       </c>
       <c r="L210" s="36"/>
-      <c r="M210" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M210" s="36"/>
+      <c r="N210" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="34" t="s">
         <v>577</v>
       </c>
@@ -10858,11 +11102,12 @@
         <v>967</v>
       </c>
       <c r="L211" s="36"/>
-      <c r="M211" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M211" s="36"/>
+      <c r="N211" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="34" t="s">
         <v>580</v>
       </c>
@@ -10895,13 +11140,16 @@
         <v>968</v>
       </c>
       <c r="L212" s="36" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M212" s="36" t="s">
         <v>583</v>
       </c>
-      <c r="M212" s="36" t="s">
+      <c r="N212" s="36" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="213" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="34" t="s">
         <v>584</v>
       </c>
@@ -10934,11 +11182,12 @@
         <v>969</v>
       </c>
       <c r="L213" s="36"/>
-      <c r="M213" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M213" s="36"/>
+      <c r="N213" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="34" t="s">
         <v>587</v>
       </c>
@@ -10971,11 +11220,12 @@
         <v>970</v>
       </c>
       <c r="L214" s="36"/>
-      <c r="M214" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M214" s="36"/>
+      <c r="N214" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="34" t="s">
         <v>590</v>
       </c>
@@ -11008,11 +11258,12 @@
         <v>971</v>
       </c>
       <c r="L215" s="36"/>
-      <c r="M215" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M215" s="36"/>
+      <c r="N215" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="34" t="s">
         <v>593</v>
       </c>
@@ -11043,11 +11294,12 @@
         <v>972</v>
       </c>
       <c r="L216" s="36"/>
-      <c r="M216" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M216" s="36"/>
+      <c r="N216" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="34" t="s">
         <v>596</v>
       </c>
@@ -11080,11 +11332,12 @@
         <v>973</v>
       </c>
       <c r="L217" s="36"/>
-      <c r="M217" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M217" s="36"/>
+      <c r="N217" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="34" t="s">
         <v>599</v>
       </c>
@@ -11117,11 +11370,12 @@
         <v>974</v>
       </c>
       <c r="L218" s="36"/>
-      <c r="M218" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M218" s="36"/>
+      <c r="N218" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="34" t="s">
         <v>602</v>
       </c>
@@ -11154,11 +11408,12 @@
         <v>975</v>
       </c>
       <c r="L219" s="36"/>
-      <c r="M219" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M219" s="36"/>
+      <c r="N219" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="34" t="s">
         <v>605</v>
       </c>
@@ -11191,11 +11446,12 @@
         <v>976</v>
       </c>
       <c r="L220" s="36"/>
-      <c r="M220" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M220" s="36"/>
+      <c r="N220" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="34" t="s">
         <v>608</v>
       </c>
@@ -11228,11 +11484,12 @@
         <v>977</v>
       </c>
       <c r="L221" s="36"/>
-      <c r="M221" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M221" s="36"/>
+      <c r="N221" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="34" t="s">
         <v>611</v>
       </c>
@@ -11265,11 +11522,12 @@
         <v>978</v>
       </c>
       <c r="L222" s="36"/>
-      <c r="M222" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M222" s="36"/>
+      <c r="N222" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="34" t="s">
         <v>614</v>
       </c>
@@ -11302,11 +11560,12 @@
         <v>979</v>
       </c>
       <c r="L223" s="36"/>
-      <c r="M223" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M223" s="36"/>
+      <c r="N223" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="34" t="s">
         <v>617</v>
       </c>
@@ -11339,11 +11598,12 @@
         <v>980</v>
       </c>
       <c r="L224" s="36"/>
-      <c r="M224" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M224" s="36"/>
+      <c r="N224" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="34" t="s">
         <v>620</v>
       </c>
@@ -11374,13 +11634,16 @@
         <v>981</v>
       </c>
       <c r="L225" s="36" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M225" s="36" t="s">
         <v>623</v>
       </c>
-      <c r="M225" s="36" t="s">
+      <c r="N225" s="36" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="226" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="34" t="s">
         <v>624</v>
       </c>
@@ -11413,11 +11676,12 @@
         <v>982</v>
       </c>
       <c r="L226" s="36"/>
-      <c r="M226" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M226" s="36"/>
+      <c r="N226" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="34" t="s">
         <v>627</v>
       </c>
@@ -11450,11 +11714,12 @@
         <v>983</v>
       </c>
       <c r="L227" s="36"/>
-      <c r="M227" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M227" s="36"/>
+      <c r="N227" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="34" t="s">
         <v>630</v>
       </c>
@@ -11485,11 +11750,12 @@
         <v>984</v>
       </c>
       <c r="L228" s="36"/>
-      <c r="M228" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M228" s="36"/>
+      <c r="N228" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="34" t="s">
         <v>633</v>
       </c>
@@ -11522,11 +11788,12 @@
         <v>985</v>
       </c>
       <c r="L229" s="36"/>
-      <c r="M229" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M229" s="36"/>
+      <c r="N229" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="34" t="s">
         <v>636</v>
       </c>
@@ -11559,11 +11826,12 @@
         <v>986</v>
       </c>
       <c r="L230" s="36"/>
-      <c r="M230" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M230" s="36"/>
+      <c r="N230" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="34" t="s">
         <v>639</v>
       </c>
@@ -11596,11 +11864,12 @@
         <v>987</v>
       </c>
       <c r="L231" s="36"/>
-      <c r="M231" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M231" s="36"/>
+      <c r="N231" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="34" t="s">
         <v>642</v>
       </c>
@@ -11632,12 +11901,13 @@
       <c r="K232" s="33" t="s">
         <v>988</v>
       </c>
-      <c r="L232" s="36"/>
-      <c r="M232" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="L232" s="33"/>
+      <c r="M232" s="36"/>
+      <c r="N232" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="34" t="s">
         <v>645</v>
       </c>
@@ -11670,11 +11940,12 @@
         <v>989</v>
       </c>
       <c r="L233" s="36"/>
-      <c r="M233" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M233" s="36"/>
+      <c r="N233" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="34" t="s">
         <v>648</v>
       </c>
@@ -11705,11 +11976,12 @@
         <v>990</v>
       </c>
       <c r="L234" s="36"/>
-      <c r="M234" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M234" s="36"/>
+      <c r="N234" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="34" t="s">
         <v>650</v>
       </c>
@@ -11740,11 +12012,12 @@
         <v>991</v>
       </c>
       <c r="L235" s="36"/>
-      <c r="M235" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M235" s="36"/>
+      <c r="N235" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="34" t="s">
         <v>653</v>
       </c>
@@ -11775,11 +12048,12 @@
         <v>992</v>
       </c>
       <c r="L236" s="36"/>
-      <c r="M236" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M236" s="36"/>
+      <c r="N236" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="34" t="s">
         <v>656</v>
       </c>
@@ -11810,11 +12084,12 @@
         <v>993</v>
       </c>
       <c r="L237" s="36"/>
-      <c r="M237" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M237" s="36"/>
+      <c r="N237" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="34" t="s">
         <v>658</v>
       </c>
@@ -11845,11 +12120,12 @@
         <v>994</v>
       </c>
       <c r="L238" s="36"/>
-      <c r="M238" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M238" s="36"/>
+      <c r="N238" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="34" t="s">
         <v>661</v>
       </c>
@@ -11882,11 +12158,12 @@
         <v>995</v>
       </c>
       <c r="L239" s="36"/>
-      <c r="M239" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M239" s="36"/>
+      <c r="N239" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="34" t="s">
         <v>664</v>
       </c>
@@ -11919,11 +12196,12 @@
         <v>996</v>
       </c>
       <c r="L240" s="36"/>
-      <c r="M240" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M240" s="36"/>
+      <c r="N240" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="34" t="s">
         <v>667</v>
       </c>
@@ -11956,11 +12234,12 @@
         <v>997</v>
       </c>
       <c r="L241" s="36"/>
-      <c r="M241" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M241" s="36"/>
+      <c r="N241" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="34" t="s">
         <v>670</v>
       </c>
@@ -11993,11 +12272,12 @@
         <v>998</v>
       </c>
       <c r="L242" s="36"/>
-      <c r="M242" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M242" s="36"/>
+      <c r="N242" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="34" t="s">
         <v>673</v>
       </c>
@@ -12028,11 +12308,12 @@
         <v>999</v>
       </c>
       <c r="L243" s="36"/>
-      <c r="M243" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M243" s="36"/>
+      <c r="N243" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="34" t="s">
         <v>676</v>
       </c>
@@ -12065,11 +12346,12 @@
         <v>1000</v>
       </c>
       <c r="L244" s="36"/>
-      <c r="M244" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M244" s="36"/>
+      <c r="N244" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="34" t="s">
         <v>679</v>
       </c>
@@ -12102,11 +12384,12 @@
         <v>1001</v>
       </c>
       <c r="L245" s="36"/>
-      <c r="M245" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M245" s="36"/>
+      <c r="N245" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="34" t="s">
         <v>682</v>
       </c>
@@ -12137,11 +12420,12 @@
         <v>1002</v>
       </c>
       <c r="L246" s="36"/>
-      <c r="M246" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M246" s="36"/>
+      <c r="N246" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="34" t="s">
         <v>685</v>
       </c>
@@ -12174,11 +12458,12 @@
         <v>1003</v>
       </c>
       <c r="L247" s="36"/>
-      <c r="M247" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M247" s="36"/>
+      <c r="N247" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="34" t="s">
         <v>688</v>
       </c>
@@ -12211,13 +12496,16 @@
         <v>1004</v>
       </c>
       <c r="L248" s="36" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M248" s="36" t="s">
         <v>691</v>
       </c>
-      <c r="M248" s="36" t="s">
+      <c r="N248" s="36" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="249" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="34" t="s">
         <v>692</v>
       </c>
@@ -12250,11 +12538,12 @@
         <v>1005</v>
       </c>
       <c r="L249" s="36"/>
-      <c r="M249" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M249" s="36"/>
+      <c r="N249" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="34" t="s">
         <v>695</v>
       </c>
@@ -12287,11 +12576,12 @@
         <v>1006</v>
       </c>
       <c r="L250" s="36"/>
-      <c r="M250" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M250" s="36"/>
+      <c r="N250" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="34" t="s">
         <v>698</v>
       </c>
@@ -12322,11 +12612,12 @@
         <v>1007</v>
       </c>
       <c r="L251" s="36"/>
-      <c r="M251" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M251" s="36"/>
+      <c r="N251" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="34" t="s">
         <v>701</v>
       </c>
@@ -12357,11 +12648,12 @@
         <v>1008</v>
       </c>
       <c r="L252" s="36"/>
-      <c r="M252" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M252" s="36"/>
+      <c r="N252" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="34" t="s">
         <v>704</v>
       </c>
@@ -12394,11 +12686,12 @@
         <v>1009</v>
       </c>
       <c r="L253" s="36"/>
-      <c r="M253" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M253" s="36"/>
+      <c r="N253" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="34" t="s">
         <v>707</v>
       </c>
@@ -12431,11 +12724,12 @@
         <v>1010</v>
       </c>
       <c r="L254" s="36"/>
-      <c r="M254" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M254" s="36"/>
+      <c r="N254" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="34" t="s">
         <v>710</v>
       </c>
@@ -12466,11 +12760,12 @@
         <v>1011</v>
       </c>
       <c r="L255" s="36"/>
-      <c r="M255" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M255" s="36"/>
+      <c r="N255" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="34" t="s">
         <v>713</v>
       </c>
@@ -12501,11 +12796,12 @@
         <v>1012</v>
       </c>
       <c r="L256" s="36"/>
-      <c r="M256" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M256" s="36"/>
+      <c r="N256" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="34" t="s">
         <v>716</v>
       </c>
@@ -12536,11 +12832,12 @@
         <v>1013</v>
       </c>
       <c r="L257" s="36"/>
-      <c r="M257" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M257" s="36"/>
+      <c r="N257" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="34" t="s">
         <v>719</v>
       </c>
@@ -12571,11 +12868,12 @@
         <v>1014</v>
       </c>
       <c r="L258" s="36"/>
-      <c r="M258" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M258" s="36"/>
+      <c r="N258" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="34" t="s">
         <v>722</v>
       </c>
@@ -12606,11 +12904,12 @@
         <v>1015</v>
       </c>
       <c r="L259" s="36"/>
-      <c r="M259" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M259" s="36"/>
+      <c r="N259" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="34" t="s">
         <v>725</v>
       </c>
@@ -12641,11 +12940,12 @@
         <v>1016</v>
       </c>
       <c r="L260" s="36"/>
-      <c r="M260" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M260" s="36"/>
+      <c r="N260" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="34" t="s">
         <v>728</v>
       </c>
@@ -12678,11 +12978,12 @@
         <v>1017</v>
       </c>
       <c r="L261" s="36"/>
-      <c r="M261" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M261" s="36"/>
+      <c r="N261" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="34" t="s">
         <v>731</v>
       </c>
@@ -12715,11 +13016,12 @@
         <v>1018</v>
       </c>
       <c r="L262" s="36"/>
-      <c r="M262" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M262" s="36"/>
+      <c r="N262" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="34" t="s">
         <v>734</v>
       </c>
@@ -12752,11 +13054,12 @@
         <v>1019</v>
       </c>
       <c r="L263" s="36"/>
-      <c r="M263" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M263" s="36"/>
+      <c r="N263" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="34" t="s">
         <v>737</v>
       </c>
@@ -12789,11 +13092,12 @@
         <v>1020</v>
       </c>
       <c r="L264" s="36"/>
-      <c r="M264" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M264" s="36"/>
+      <c r="N264" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="34" t="s">
         <v>740</v>
       </c>
@@ -12826,11 +13130,12 @@
         <v>1021</v>
       </c>
       <c r="L265" s="36"/>
-      <c r="M265" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M265" s="36"/>
+      <c r="N265" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="34" t="s">
         <v>743</v>
       </c>
@@ -12863,11 +13168,12 @@
         <v>1022</v>
       </c>
       <c r="L266" s="36"/>
-      <c r="M266" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M266" s="36"/>
+      <c r="N266" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="34" t="s">
         <v>746</v>
       </c>
@@ -12900,11 +13206,12 @@
         <v>1023</v>
       </c>
       <c r="L267" s="36"/>
-      <c r="M267" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M267" s="36"/>
+      <c r="N267" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="34" t="s">
         <v>749</v>
       </c>
@@ -12937,11 +13244,12 @@
         <v>1024</v>
       </c>
       <c r="L268" s="36"/>
-      <c r="M268" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M268" s="36"/>
+      <c r="N268" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="34" t="s">
         <v>752</v>
       </c>
@@ -12974,11 +13282,12 @@
         <v>1025</v>
       </c>
       <c r="L269" s="36"/>
-      <c r="M269" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M269" s="36"/>
+      <c r="N269" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="34" t="s">
         <v>755</v>
       </c>
@@ -13011,11 +13320,12 @@
         <v>1026</v>
       </c>
       <c r="L270" s="36"/>
-      <c r="M270" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M270" s="36"/>
+      <c r="N270" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="34" t="s">
         <v>758</v>
       </c>
@@ -13046,11 +13356,12 @@
         <v>1027</v>
       </c>
       <c r="L271" s="36"/>
-      <c r="M271" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M271" s="36"/>
+      <c r="N271" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="34" t="s">
         <v>761</v>
       </c>
@@ -13083,11 +13394,12 @@
         <v>1028</v>
       </c>
       <c r="L272" s="36"/>
-      <c r="M272" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M272" s="36"/>
+      <c r="N272" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="34" t="s">
         <v>764</v>
       </c>
@@ -13120,11 +13432,12 @@
         <v>1029</v>
       </c>
       <c r="L273" s="36"/>
-      <c r="M273" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M273" s="36"/>
+      <c r="N273" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="34" t="s">
         <v>767</v>
       </c>
@@ -13155,11 +13468,12 @@
         <v>1030</v>
       </c>
       <c r="L274" s="36"/>
-      <c r="M274" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M274" s="36"/>
+      <c r="N274" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="34" t="s">
         <v>770</v>
       </c>
@@ -13192,11 +13506,12 @@
         <v>1031</v>
       </c>
       <c r="L275" s="36"/>
-      <c r="M275" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M275" s="36"/>
+      <c r="N275" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="34" t="s">
         <v>773</v>
       </c>
@@ -13229,11 +13544,12 @@
         <v>1032</v>
       </c>
       <c r="L276" s="36"/>
-      <c r="M276" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M276" s="36"/>
+      <c r="N276" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="34" t="s">
         <v>776</v>
       </c>
@@ -13266,21 +13582,22 @@
         <v>1033</v>
       </c>
       <c r="L277" s="36"/>
-      <c r="M277" s="36" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="M277" s="36"/>
+      <c r="N277" s="36" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="289" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="290" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="291" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -13315,10 +13632,10 @@
     <row r="453" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B453" s="4"/>
     </row>
-    <row r="466" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B466" s="4"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" s="12"/>
       <c r="C477" s="5"/>
       <c r="D477" s="5"/>
@@ -13327,6 +13644,7 @@
       <c r="I477" s="5"/>
       <c r="J477" s="5"/>
       <c r="K477" s="2"/>
+      <c r="L477" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13362,12 +13680,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13582,15 +13897,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008ABE91-8C92-4516-916D-4DC325FB5C89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAE62FC3-7D3B-4886-B53E-C881811D2384}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13615,10 +13934,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAE62FC3-7D3B-4886-B53E-C881811D2384}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008ABE91-8C92-4516-916D-4DC325FB5C89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>